--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>invalid</t>
+  </si>
+  <si>
+    <t>valid</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.65" x14ac:dyDescent="0.55000000000000004">
